--- a/data/trans_dic/P15E_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P15E_R-Edad-trans_dic.xlsx
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,43; 4,52</t>
+          <t>2,38; 4,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,43; 7,82</t>
+          <t>4,43; 7,88</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,95; 6,09</t>
+          <t>4,01; 6,08</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,48; 0,93</t>
+          <t>0,48; 0,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,35; 2,04</t>
+          <t>1,38; 2,03</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">

--- a/data/trans_dic/P15E_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P15E_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P15E_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P15E_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,38; 4,51</t>
+          <t>2,43; 4,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,43; 7,88</t>
+          <t>4,43; 7,82</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,01; 6,08</t>
+          <t>3,95; 6,09</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,48; 0,92</t>
+          <t>0,48; 0,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,38; 2,03</t>
+          <t>1,35; 2,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">

--- a/data/trans_dic/P15E_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P15E_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1206,7 +1206,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>2,82%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0; 0,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0; 0,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>0; 0,59</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1,12; 3,57</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,52</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,56</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,54</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1,11; 5,36</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,28</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
           <t>0; 0,31</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>2,43; 4,52</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,29</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="M15" s="2" t="inlineStr">
         <is>
           <t>0; 0,28</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,29</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>4,43; 7,82</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,16</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,16</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,15</t>
-        </is>
-      </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,95; 6,09</t>
+          <t>1,44; 3,98</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>7,64%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0; 0,87</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,86</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,63</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3,32; 7,3</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,66</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,55</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,64</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>7,44; 11,41</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,38</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,34</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,32</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>6,34; 9,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0,64%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1,61%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1,14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0,48; 0,93</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0,43; 0,88</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>1,35; 2,04</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1,24; 1,96</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>0; 0,03</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>0; 0,03</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>0; 0,03</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>1,02; 1,42</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>0,93; 1,34</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
